--- a/export_tovar_to_xls.xlsx
+++ b/export_tovar_to_xls.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>product_id</t>
   </si>
@@ -175,13 +175,16 @@
     <t>Royal Canin</t>
   </si>
   <si>
+    <t>catalog/2274_360x360.jpg</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>2016-01-25 14:50:34</t>
-  </si>
-  <si>
-    <t>2016-01-25</t>
+    <t>2016-01-26 13:32:49</t>
+  </si>
+  <si>
+    <t>2016-01-26</t>
   </si>
   <si>
     <t>true</t>
@@ -190,22 +193,58 @@
     <t>Для взрослых собак средних размеров: 11-25 кг, 1-7 лет, Medium Adult</t>
   </si>
   <si>
+    <t>catalog/2280_360x360.jpg</t>
+  </si>
+  <si>
     <t>Для взрослых собак крупных пород: 26-44 кг, 15 мес. - 5 лет, Maxi Adult 26</t>
   </si>
   <si>
+    <t>catalog/2283_360x360.jpg</t>
+  </si>
+  <si>
     <t>Для взрослых собак гигантских пород: более 45 кг, c 18 мес., Giant Adult 28</t>
   </si>
   <si>
+    <t>catalog/2289_360x360.jpg</t>
+  </si>
+  <si>
     <t>&lt;div id="product-features"&gt;                             &lt;ul&gt;      &lt;li&gt;&lt;strong&gt;Помогает поддерживать здоровье суставов.&lt;/strong&gt; &lt;/li&gt;      &lt;li&gt;&lt;strong&gt;Хондроитин&lt;/strong&gt; препятствует обезвоживанию хряща.&lt;/li&gt;      &lt;li&gt;&lt;strong&gt;Глюкозамин&lt;/strong&gt; стимулирует его обновление. Эта уникальная комбинация, включающая жирные кислоты EPA и DHA, обладает синергичным действием, сохраняя подвижность суставов.&lt;/li&gt;      &lt;li&gt;&lt;strong&gt;Способствует поддержанию здоровья собаки на протяжении всей жизни&lt;/strong&gt; благодаря запатентованному комплексу антиоксидантов (витамины Е и С, таурин, лютеин). Стимулирует разгрызание, уменьшая скорость потребления корма благодаря запатентованным крокетам с чистящим эффектом, специально разработанным для собак очень крупных размеров, что снижает риск заглатывания воздуха и пищеварительных расстройств, к которым склонны собаки группы Giant.&lt;/li&gt;      &lt;li&gt;&lt;strong&gt;Продукт способствует хорошей гигиене полости рта и зубов.&lt;/strong&gt;&lt;/li&gt;      &lt;li&gt;&lt;strong&gt;Замедляет процессы старения&lt;/strong&gt; благодаря пониженному содержанию фосфора для сохранения функции почек и повышенному содержанию витаминов Е (500 мг/кг) и С (200 мг/кг), и селена, защищающего клетки.&lt;/li&gt;      &lt;li&gt;&lt;strong&gt;Способствует хорошей работе сердечной мышцы&lt;/strong&gt; благодаря уникальной комбинации L-карнитина (50мг/кг) и таурина (1000 мг/кг), стимулирующих ее сокращение.&lt;/li&gt;  &lt;/ul&gt;                        &lt;/div&gt;</t>
   </si>
   <si>
     <t>Для собак малых пород, живущих преимущественно в домашних условиях, Indor Life Adult Mini</t>
   </si>
   <si>
+    <t>catalog/144710_360x360.jpg</t>
+  </si>
+  <si>
     <t>&lt;div id="product-features"&gt;                             Полнорационный корм для взрослых собак мелких размеров (весом менее 10 кг) в возрасте от 10 месяцев и старше, живущих главным образом в помещении.  &lt;div&gt;    &lt;br /&gt;  &lt;/div&gt;    &lt;div&gt;    &lt;p style="margin: 0px; padding: 0px 0px 10px; outline: none; border: 0px; font-family: Arial, Helvetica, sans-serif; font-size: 13px; line-height: 18.200000762939453px; vertical-align: baseline; color: rgb(45, 45, 45); background-color: rgb(255, 255, 255);"&gt;&lt;img width="100" alt="Indoor Adult" src="http://www.royal-canin.ru/upload/medialibrary/bd8/main_benefit_310.jpg" height="89" align="left" style="margin: 0px 10px 0px 0px; padding: 0px; outline: none; border: none; font-family: inherit; font-size: inherit; font-style: inherit; font-variant: inherit; font-weight: inherit; line-height: inherit; vertical-align: top; max-width: 100%;" /&gt;&lt;/p&gt;      &lt;h5 style="margin: 0px; padding: 0px 0px 10px; outline: none; border: 0px; font-family: Arial, Helvetica, sans-serif; font-size: 14px; line-height: inherit; vertical-align: baseline; color: rgb(45, 45, 45); background-color: rgb(255, 255, 255);"&gt;ЗДОРОВОЕ ПИЩЕВАРЕНИЕ, НОРМАЛЬНЫЙ СТУЛ&lt;/h5&gt;      &lt;p style="margin: 0px; padding: 0px 0px 10px; outline: none; border: 0px; font-family: Arial, Helvetica, sans-serif; font-size: 13px; line-height: 18.200000762939453px; vertical-align: baseline; color: rgb(45, 45, 45); background-color: rgb(255, 255, 255);"&gt;INDOOR LIFE ADULT поддерживает здоровье пищеварительной системы и уменьшает запах и объем фекалий благодаря высокоусвояемым белкам L.I.P., оптимальному содержанию клетчатки и качественным источникам углеводов&lt;/p&gt;      &lt;p style="margin: 0px; padding: 0px 0px 10px; outline: none; border: 0px; font-family: Arial, Helvetica, sans-serif; font-size: 13px; line-height: 18.200000762939453px; vertical-align: baseline; color: rgb(45, 45, 45); background-color: rgb(255, 255, 255);"&gt;      &lt;br /&gt;    &lt;/p&gt;  &lt;img width="101" src="http://www.royal-canin.ru/upload/medialibrary/cc4/secondary_benefit_410.jpg" height="92" align="left" style="margin: 0px 10px 0px 0px; padding: 0px; outline: none; border: none; font-family: Arial, Helvetica, sans-serif; font-size: 13px; line-height: 18.200000762939453px; vertical-align: top; max-width: 100%; color: rgb(45, 45, 45); background-color: rgb(255, 255, 255);" /&gt;    &lt;h5 style="margin: 0px; padding: 0px 0px 10px; outline: none; border: 0px; font-family: Arial, Helvetica, sans-serif; font-size: 14px; line-height: inherit; vertical-align: baseline; color: rgb(45, 45, 45); background-color: rgb(255, 255, 255);"&gt;ИДЕАЛЬНЫЙ ВЕС&lt;/h5&gt;      &lt;p style="margin: 0px; padding: 0px 0px 10px; outline: none; border: 0px; font-family: Arial, Helvetica, sans-serif; font-size: 13px; line-height: 18.200000762939453px; vertical-align: baseline; color: rgb(45, 45, 45); background-color: rgb(255, 255, 255);"&gt;Продукт помогает собаке поддерживать идеальный вес благодаря умеренной калорийности, отвечающей сниженным потребностям в энергии собак, содержащихся преимущественно в домашних условиях. Содержит также L-карнитин.&lt;/p&gt;      &lt;br style="margin: 0px; padding: 0px; outline: none; color: rgb(45, 45, 45); font-family: Arial, Helvetica, sans-serif; font-size: 13px; line-height: 18.200000762939453px; background-color: rgb(255, 255, 255);" /&gt;  &lt;img width="101" src="http://www.royal-canin.ru/upload/medialibrary/8da/secondary_benefit_420.jpg" height="96" align="left" style="margin: 0px 10px 0px 0px; padding: 0px; outline: none; border: none; font-family: Arial, Helvetica, sans-serif; font-size: 13px; line-height: 18.200000762939453px; vertical-align: top; max-width: 100%; color: rgb(45, 45, 45); background-color: rgb(255, 255, 255);" /&gt;    &lt;h5 style="margin: 0px; padding: 0px 0px 10px; outline: none; border: 0px; font-family: Arial, Helvetica, sans-serif; font-size: 14px; line-height: inherit; vertical-align: baseline; color: rgb(45, 45, 45); background-color: rgb(255, 255, 255);"&gt;ЗДОРОВЬЕ ШЕРСТИ&lt;/h5&gt;      &lt;p style="margin: 0px; padding: 0px 0px 10px; outline: none; border: 0px; font-family: Arial, Helvetica, sans-serif; font-size: 13px; line-height: 18.200000762939453px; vertical-align: baseline; color: rgb(45, 45, 45); background-color: rgb(255, 255, 255);"&gt;Содержит питательные вещества, способствующие поддержанию здоровья кожи и шерсти. Обогащен жирными кислотами Омега 3 (EPAи DHA).&lt;/p&gt;  &lt;span style="color: rgb(45, 45, 45); font-family: Arial, Helvetica, sans-serif; font-size: 13px; line-height: 18.200000762939453px; background-color: rgb(255, 255, 255);"&gt; &lt;/span&gt;    &lt;br style="margin: 0px; padding: 0px; outline: none; color: rgb(45, 45, 45); font-family: Arial, Helvetica, sans-serif; font-size: 13px; line-height: 18.200000762939453px; background-color: rgb(255, 255, 255);" /&gt;      &lt;h5 style="margin: 0px; padding: 0px 0px 10px; outline: none; border: 0px; font-family: Arial, Helvetica, sans-serif; font-size: 14px; line-height: inherit; vertical-align: baseline; color: rgb(45, 45, 45); background-color: rgb(255, 255, 255);"&gt;ЗДОРОВЬЕ ЗУБОВ&lt;/h5&gt;      &lt;p style="margin: 0px; padding: 0px 0px 10px; outline: none; border: 0px; font-family: Arial, Helvetica, sans-serif; font-size: 13px; line-height: 18.200000762939453px; vertical-align: baseline; color: rgb(45, 45, 45); background-color: rgb(255, 255, 255);"&gt;Продукт содержит хелаторы кальция, предотвращающие образование зубного камня и способствующие поддержанию гигиены полости рта.&lt;/p&gt;  &lt;/div&gt;                          &lt;/div&gt;</t>
   </si>
   <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>catalog/213935_360x360.jpg</t>
+  </si>
+  <si>
+    <t>catalog/213936_360x360.jpg</t>
+  </si>
+  <si>
+    <t>catalog/213904_360x360.jpg</t>
+  </si>
+  <si>
+    <t>catalog/214882_360x360.jpg</t>
+  </si>
+  <si>
+    <t>catalog/214883_360x360.jpg</t>
+  </si>
+  <si>
+    <t>catalog/214884_360x360.jpg</t>
+  </si>
+  <si>
+    <t>catalog/144711_360x360.jpg</t>
+  </si>
+  <si>
+    <t>catalog/214890_360x360.jpg</t>
   </si>
   <si>
     <t>customer_group</t>
@@ -595,7 +634,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AU6"/>
+  <dimension ref="A1:AU13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,7 +787,7 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2">
-        <v>2291</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -762,29 +801,35 @@
       <c r="L2">
         <v>100</v>
       </c>
+      <c r="M2">
+        <v>2291</v>
+      </c>
       <c r="N2" t="s">
         <v>49</v>
       </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="O2" t="s">
+        <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q2">
-        <v>100</v>
+        <v>2012</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="V2">
+        <v>8</v>
       </c>
       <c r="AB2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -801,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AU2">
         <v>1</v>
@@ -809,13 +854,13 @@
     </row>
     <row r="3" spans="1:47">
       <c r="A3">
-        <v>2293</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -823,29 +868,35 @@
       <c r="L3">
         <v>100</v>
       </c>
+      <c r="M3">
+        <v>2291</v>
+      </c>
       <c r="N3" t="s">
         <v>49</v>
       </c>
-      <c r="O3">
-        <v>0</v>
+      <c r="O3" t="s">
+        <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q3">
-        <v>100</v>
+        <v>1094</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
       </c>
       <c r="AB3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -862,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="AT3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AU3">
         <v>1</v>
@@ -870,13 +921,13 @@
     </row>
     <row r="4" spans="1:47">
       <c r="A4">
-        <v>2294</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
@@ -884,29 +935,35 @@
       <c r="L4">
         <v>100</v>
       </c>
+      <c r="M4">
+        <v>2291</v>
+      </c>
       <c r="N4" t="s">
         <v>49</v>
       </c>
-      <c r="O4">
-        <v>0</v>
+      <c r="O4" t="s">
+        <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q4">
-        <v>100</v>
+        <v>630</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -923,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="AT4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AU4">
         <v>1</v>
@@ -931,13 +988,13 @@
     </row>
     <row r="5" spans="1:47">
       <c r="A5">
-        <v>2296</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -945,39 +1002,41 @@
       <c r="L5">
         <v>100</v>
       </c>
+      <c r="M5">
+        <v>2291</v>
+      </c>
       <c r="N5" t="s">
         <v>49</v>
       </c>
-      <c r="O5">
-        <v>0</v>
+      <c r="O5" t="s">
+        <v>50</v>
       </c>
       <c r="P5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q5">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="V5">
+        <v>0.8</v>
       </c>
       <c r="AB5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
-      <c r="AE5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>57</v>
-      </c>
+      <c r="AE5"/>
+      <c r="AF5"/>
       <c r="AM5">
         <v>7</v>
       </c>
@@ -988,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="AT5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AU5">
         <v>1</v>
@@ -996,13 +1055,13 @@
     </row>
     <row r="6" spans="1:47">
       <c r="A6">
-        <v>99147</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -1010,39 +1069,41 @@
       <c r="L6">
         <v>100</v>
       </c>
+      <c r="M6">
+        <v>2293</v>
+      </c>
       <c r="N6" t="s">
         <v>49</v>
       </c>
-      <c r="O6">
-        <v>0</v>
+      <c r="O6" t="s">
+        <v>56</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>3509</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="V6">
+        <v>15</v>
       </c>
       <c r="AB6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
-      <c r="AE6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE6"/>
+      <c r="AF6"/>
       <c r="AM6">
         <v>7</v>
       </c>
@@ -1053,9 +1114,494 @@
         <v>0</v>
       </c>
       <c r="AT6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>2293</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7">
+        <v>979</v>
+      </c>
+      <c r="S7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" t="s">
         <v>53</v>
       </c>
-      <c r="AU6">
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AM7">
+        <v>7</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>2294</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8">
+        <v>3156</v>
+      </c>
+      <c r="S8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AM8">
+        <v>7</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>2294</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9">
+        <v>1099</v>
+      </c>
+      <c r="S9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AM9">
+        <v>7</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>2296</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10">
+        <v>3127</v>
+      </c>
+      <c r="S10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM10">
+        <v>7</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>2296</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11">
+        <v>957</v>
+      </c>
+      <c r="S11" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" t="s">
+        <v>53</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM11">
+        <v>7</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>99147</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12">
+        <v>1082</v>
+      </c>
+      <c r="S12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM12">
+        <v>7</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>99147</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13">
+        <v>235</v>
+      </c>
+      <c r="S13" t="s">
+        <v>52</v>
+      </c>
+      <c r="T13" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" t="s">
+        <v>53</v>
+      </c>
+      <c r="V13">
+        <v>0.5</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM13">
+        <v>7</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU13">
         <v>1</v>
       </c>
     </row>
@@ -1080,7 +1626,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,10 +1639,340 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1133,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1182,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
@@ -1274,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1317,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -1332,19 +2208,19 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1381,16 +2257,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1427,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
